--- a/£ITS.xlsx
+++ b/£ITS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3307637-16F7-410B-930B-B0B9358D6D14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E5061E-CD17-E94F-8DCD-8D00CAF7AB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{A3B42892-99A5-4AD2-A62E-54D4FCF341AE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18900" activeTab="1" xr2:uid="{A3B42892-99A5-4AD2-A62E-54D4FCF341AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -661,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -670,7 +680,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -701,10 +711,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -728,7 +738,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -746,7 +755,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -758,48 +767,13 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -817,7 +791,6 @@
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -826,6 +799,39 @@
     <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1319,51 +1325,51 @@
       <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="58" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="G5" s="58" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="G5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="60"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,7 +1391,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1403,7 @@
         <f>$C$28</f>
         <v>FH123</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>44896</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1415,7 +1421,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1425,7 +1431,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="45" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="6"/>
@@ -1440,7 +1446,7 @@
       <c r="R8" s="6"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1466,7 +1472,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1498,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1518,7 +1524,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +1547,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
       <c r="G13" s="11"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1556,7 +1562,7 @@
       <c r="R13" s="6"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
       <c r="G14" s="11"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1571,12 +1577,12 @@
       <c r="R14" s="6"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="58" t="s">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B15" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
       <c r="G15" s="11"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1591,14 +1597,14 @@
       <c r="R15" s="6"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="80"/>
       <c r="G16" s="11"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1613,17 +1619,17 @@
       <c r="R16" s="6"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="80"/>
       <c r="G17" s="11"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1638,17 +1644,17 @@
       <c r="R17" s="6"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="80"/>
       <c r="G18" s="11"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1663,14 +1669,14 @@
       <c r="R18" s="6"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="82"/>
       <c r="G19" s="11"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1685,7 +1691,7 @@
       <c r="R19" s="6"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G20" s="11"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1700,7 +1706,7 @@
       <c r="R20" s="6"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G21" s="11"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1715,12 +1721,12 @@
       <c r="R21" s="6"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="58" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B22" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
       <c r="G22" s="11"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1735,14 +1741,14 @@
       <c r="R22" s="6"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="80"/>
       <c r="G23" s="11"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1757,14 +1763,14 @@
       <c r="R23" s="6"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="79">
         <v>2013</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="80"/>
       <c r="G24" s="11"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1779,12 +1785,12 @@
       <c r="R24" s="6"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
       <c r="G25" s="11"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1799,15 +1805,15 @@
       <c r="R25" s="6"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="79">
         <f>'Financial Model'!K43</f>
         <v>7.0860000000000003</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="80"/>
       <c r="G26" s="11"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -1822,10 +1828,10 @@
       <c r="R26" s="6"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B27" s="11"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="G27" s="11"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1840,7 +1846,7 @@
       <c r="R27" s="6"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B28" s="11" t="s">
         <v>18</v>
       </c>
@@ -1866,14 +1872,14 @@
       <c r="R28" s="6"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="62"/>
+      <c r="D29" s="84"/>
       <c r="G29" s="11"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -1888,7 +1894,7 @@
       <c r="R29" s="6"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G30" s="11"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -1903,7 +1909,7 @@
       <c r="R30" s="6"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G31" s="11"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -1918,12 +1924,12 @@
       <c r="R31" s="6"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="58" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B32" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
       <c r="G32" s="11"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -1938,12 +1944,12 @@
       <c r="R32" s="6"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
       <c r="G33" s="11"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -1958,12 +1964,12 @@
       <c r="R33" s="6"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
       <c r="G34" s="11"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -1978,15 +1984,15 @@
       <c r="R34" s="6"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="63">
+      <c r="C35" s="85">
         <f>C8/SUM('Financial Model'!J6:K6)</f>
         <v>0.13172320844226679</v>
       </c>
-      <c r="D35" s="64"/>
+      <c r="D35" s="86"/>
       <c r="G35" s="11"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2001,15 +2007,15 @@
       <c r="R35" s="6"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="63">
+      <c r="C36" s="85">
         <f>C6/'Financial Model'!K61</f>
         <v>0.92751591311027226</v>
       </c>
-      <c r="D36" s="64"/>
+      <c r="D36" s="86"/>
       <c r="G36" s="11"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -2024,12 +2030,12 @@
       <c r="R36" s="6"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="55"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="80"/>
       <c r="G37" s="11"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -2044,10 +2050,10 @@
       <c r="R37" s="6"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B38" s="11"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="55"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
       <c r="G38" s="11"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -2062,10 +2068,10 @@
       <c r="R38" s="6"/>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B39" s="11"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="80"/>
       <c r="G39" s="11"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -2080,10 +2086,10 @@
       <c r="R39" s="6"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B40" s="12"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="57"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="82"/>
       <c r="G40" s="11"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -2098,7 +2104,7 @@
       <c r="R40" s="6"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
       <c r="G41" s="12"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -2115,13 +2121,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
@@ -2138,6 +2137,13 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{89289E1C-5DFC-4452-AED2-1164A8B55475}"/>
@@ -2152,30 +2158,30 @@
   <dimension ref="A1:AE80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="R77" sqref="R77:S77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="25"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="25"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="25"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="25"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="39"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="9.1640625" style="25"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.1640625" style="25"/>
+    <col min="7" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.1640625" style="25"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.1640625" style="25"/>
+    <col min="11" max="11" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="9.1640625" style="38"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="14" t="s">
         <v>69</v>
       </c>
@@ -2200,10 +2206,10 @@
       <c r="J1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="63" t="s">
         <v>117</v>
       </c>
       <c r="N1" s="14" t="s">
@@ -2218,10 +2224,10 @@
       <c r="Q1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="39" t="s">
         <v>41</v>
       </c>
       <c r="T1" s="14" t="s">
@@ -2261,34 +2267,34 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15"/>
       <c r="D2" s="24"/>
       <c r="F2" s="24"/>
       <c r="H2" s="24"/>
-      <c r="I2" s="45">
+      <c r="I2" s="44">
         <v>44469</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="49">
         <v>44651</v>
       </c>
-      <c r="K2" s="45">
+      <c r="K2" s="44">
         <v>44834</v>
       </c>
-      <c r="L2" s="90" t="s">
+      <c r="L2" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="Q2" s="45">
+      <c r="Q2" s="44">
         <v>43921</v>
       </c>
-      <c r="R2" s="45">
+      <c r="R2" s="44">
         <v>44286</v>
       </c>
-      <c r="S2" s="45">
+      <c r="S2" s="44">
         <v>44651</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="15"/>
       <c r="D3" s="24"/>
       <c r="F3" s="24"/>
@@ -2297,35 +2303,35 @@
       <c r="K3" s="26">
         <v>44903</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="R3" s="65">
+      <c r="L3" s="64"/>
+      <c r="R3" s="53">
         <v>44769</v>
       </c>
-      <c r="S3" s="65">
+      <c r="S3" s="53">
         <v>44761</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="72" t="s">
+    <row r="4" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="H4" s="52">
+      <c r="D4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="H4" s="51">
         <f>R4-G4</f>
         <v>36.374000000000002</v>
       </c>
       <c r="I4" s="32">
         <v>22.962</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="51">
         <f>S4-I4</f>
         <v>21.721</v>
       </c>
       <c r="K4" s="32">
         <v>22.847000000000001</v>
       </c>
-      <c r="L4" s="79"/>
+      <c r="L4" s="65"/>
       <c r="Q4" s="32">
         <v>17.5</v>
       </c>
@@ -2336,27 +2342,27 @@
         <v>44.683</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="72" t="s">
+    <row r="5" spans="1:31" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="H5" s="52">
+      <c r="D5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="H5" s="51">
         <f>R5-G5</f>
         <v>8.3309999999999995</v>
       </c>
       <c r="I5" s="32">
         <v>6.8520000000000003</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="51">
         <f>S5-I5</f>
         <v>5.782</v>
       </c>
       <c r="K5" s="32">
         <v>3.7349999999999999</v>
       </c>
-      <c r="L5" s="79"/>
+      <c r="L5" s="65"/>
       <c r="Q5" s="32">
         <v>1.8</v>
       </c>
@@ -2367,13 +2373,13 @@
         <v>12.634</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="H6" s="51">
+      <c r="D6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="H6" s="50">
         <f>H4+H5</f>
         <v>44.704999999999998</v>
       </c>
@@ -2381,7 +2387,7 @@
         <f>I4+I5</f>
         <v>29.814</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="50">
         <f>J4+J5</f>
         <v>27.503</v>
       </c>
@@ -2389,7 +2395,7 @@
         <f>K4+K5</f>
         <v>26.582000000000001</v>
       </c>
-      <c r="L6" s="80"/>
+      <c r="L6" s="66"/>
       <c r="Q6" s="33">
         <v>19.303000000000001</v>
       </c>
@@ -2402,41 +2408,41 @@
         <v>57.317</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="34">
+      <c r="D7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="20">
         <v>15.781000000000001</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="52">
         <f>S7-I7</f>
         <v>16.367000000000004</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="20">
         <v>13.686999999999999</v>
       </c>
-      <c r="L7" s="81"/>
-      <c r="Q7" s="34">
+      <c r="L7" s="67"/>
+      <c r="Q7" s="20">
         <v>9.0690000000000008</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="20">
         <v>24.116</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="20">
         <v>32.148000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="H8" s="51">
+      <c r="D8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="H8" s="50">
         <f>H6-H7</f>
         <v>44.704999999999998</v>
       </c>
@@ -2444,7 +2450,7 @@
         <f>I6-I7</f>
         <v>14.032999999999999</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="50">
         <f>J6-J7</f>
         <v>11.135999999999996</v>
       </c>
@@ -2452,7 +2458,7 @@
         <f>K6-K7</f>
         <v>12.895000000000001</v>
       </c>
-      <c r="L8" s="80"/>
+      <c r="L8" s="66"/>
       <c r="Q8" s="33">
         <f t="shared" ref="Q8:S8" si="0">Q6-Q7</f>
         <v>10.234</v>
@@ -2466,145 +2472,145 @@
         <v>25.168999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34" t="s">
+    <row r="9" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="34">
+      <c r="D9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="20">
         <v>5.4569999999999999</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="52">
         <f>S9-I9</f>
         <v>4.5789999999999997</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="20">
         <v>4.7839999999999998</v>
       </c>
-      <c r="L9" s="81"/>
-      <c r="Q9" s="34">
+      <c r="L9" s="67"/>
+      <c r="Q9" s="20">
         <v>4.1890000000000001</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="20">
         <v>7.4279999999999999</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="20">
         <v>10.036</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="34" t="s">
+    <row r="10" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="34">
+      <c r="D10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="20">
         <v>7.38</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="52">
         <f>S10-I10</f>
         <v>9.2590000000000003</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="20">
         <v>9.9429999999999996</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="Q10" s="34">
+      <c r="L10" s="67"/>
+      <c r="Q10" s="20">
         <v>8.0809999999999995</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="20">
         <v>12.919</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10" s="20">
         <v>16.638999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="34" t="s">
+    <row r="11" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="34">
+      <c r="D11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="20">
         <v>0</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="52">
         <v>0</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="20">
         <v>0</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="Q11" s="34">
+      <c r="L11" s="67"/>
+      <c r="Q11" s="20">
         <v>0.224</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="20">
         <v>0.27700000000000002</v>
       </c>
-      <c r="S11" s="34">
+      <c r="S11" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="67" t="s">
+    <row r="12" spans="1:31" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="59"/>
+      <c r="B12" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="H12" s="68">
+      <c r="D12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="H12" s="56">
         <f>H8-H9-H10+H11+SUM(H13:H15)</f>
         <v>44.704999999999998</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="55">
         <f t="shared" ref="I12:K12" si="1">I8-I9-I10+I11+SUM(I13:I15)</f>
         <v>1.4890000000000005</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="56">
         <f>J8-J9-J10+J11+SUM(J13:J15)</f>
         <v>-0.93800000000000439</v>
       </c>
-      <c r="K12" s="71">
+      <c r="K12" s="55">
         <f t="shared" si="1"/>
         <v>-0.58999999999999897</v>
       </c>
-      <c r="L12" s="82"/>
-      <c r="Q12" s="71">
+      <c r="L12" s="68"/>
+      <c r="Q12" s="55">
         <f>Q8-Q9-Q10+Q11+SUM(Q13:Q15)</f>
         <v>-1.1359999999999997</v>
       </c>
-      <c r="R12" s="71">
+      <c r="R12" s="55">
         <f>R8-R9-R10+R11+SUM(R13:R15)</f>
         <v>3.7989999999999977</v>
       </c>
-      <c r="S12" s="71">
+      <c r="S12" s="55">
         <f>S8-S9-S10+S11+SUM(S13:S15)</f>
         <v>0.55099999999999794</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74"/>
+    <row r="13" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="60"/>
       <c r="B13" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="D13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="20">
         <v>0.29299999999999998</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="52">
         <f t="shared" ref="J13:J19" si="2">S13-I13</f>
         <v>0.68700000000000006</v>
       </c>
       <c r="K13" s="20">
         <v>0.80200000000000005</v>
       </c>
-      <c r="L13" s="83"/>
+      <c r="L13" s="67"/>
       <c r="Q13" s="20">
         <f>0.272+0.404</f>
         <v>0.67600000000000005</v>
@@ -2618,25 +2624,25 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
+    <row r="14" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="60"/>
       <c r="B14" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="H14" s="69"/>
+      <c r="D14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="20">
         <v>0</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="52">
         <f t="shared" si="2"/>
         <v>0.86099999999999999</v>
       </c>
       <c r="K14" s="20">
         <v>0.115</v>
       </c>
-      <c r="L14" s="83"/>
+      <c r="L14" s="67"/>
       <c r="Q14" s="20">
         <v>0</v>
       </c>
@@ -2647,25 +2653,25 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
+    <row r="15" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="61"/>
       <c r="B15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="D15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="21">
         <v>0</v>
       </c>
-      <c r="J15" s="70">
+      <c r="J15" s="57">
         <f t="shared" si="2"/>
         <v>0.216</v>
       </c>
       <c r="K15" s="21">
         <v>0.32500000000000001</v>
       </c>
-      <c r="L15" s="84"/>
+      <c r="L15" s="69"/>
       <c r="Q15" s="21">
         <v>0</v>
       </c>
@@ -2676,13 +2682,13 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="H16" s="51">
+      <c r="D16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="H16" s="50">
         <f>H8-H9-H10+H11</f>
         <v>44.704999999999998</v>
       </c>
@@ -2690,7 +2696,7 @@
         <f>I8-I9-I10+I11</f>
         <v>1.1960000000000006</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="50">
         <f>J8-J9-J10+J11</f>
         <v>-2.7020000000000044</v>
       </c>
@@ -2698,7 +2704,7 @@
         <f>K8-K9-K10+K11</f>
         <v>-1.831999999999999</v>
       </c>
-      <c r="L16" s="80"/>
+      <c r="L16" s="66"/>
       <c r="Q16" s="33">
         <f>Q8-Q9-Q10+Q11</f>
         <v>-1.8119999999999996</v>
@@ -2712,108 +2718,108 @@
         <v>-1.506000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
+    <row r="17" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="34">
+      <c r="D17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="20">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="52">
         <f t="shared" si="2"/>
         <v>-2.6000000000000002E-2</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="20">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="L17" s="81"/>
-      <c r="Q17" s="34">
+      <c r="L17" s="67"/>
+      <c r="Q17" s="20">
         <f>0.003-0.348</f>
         <v>-0.34499999999999997</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="20">
         <f>0.001-0.395</f>
         <v>-0.39400000000000002</v>
       </c>
-      <c r="S17" s="34">
+      <c r="S17" s="20">
         <f>0.001-0.04</f>
         <v>-3.9E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34" t="s">
+    <row r="18" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="H18" s="53">
+      <c r="D18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="H18" s="52">
         <f>H16+H17</f>
         <v>44.704999999999998</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="20">
         <f>I16+I17</f>
         <v>1.1830000000000007</v>
       </c>
-      <c r="J18" s="53">
+      <c r="J18" s="52">
         <f>J16+J17</f>
         <v>-2.7280000000000042</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="20">
         <f>K16+K17</f>
         <v>-1.9069999999999989</v>
       </c>
-      <c r="L18" s="81"/>
-      <c r="Q18" s="34">
+      <c r="L18" s="67"/>
+      <c r="Q18" s="20">
         <f>Q16+Q17</f>
         <v>-2.1569999999999996</v>
       </c>
-      <c r="R18" s="34">
+      <c r="R18" s="20">
         <f>R16+R17</f>
         <v>0.12499999999999734</v>
       </c>
-      <c r="S18" s="34">
+      <c r="S18" s="20">
         <f>S16+S17</f>
         <v>-1.5450000000000019</v>
       </c>
     </row>
-    <row r="19" spans="2:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34" t="s">
+    <row r="19" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="34">
+      <c r="D19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="20">
         <v>0</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="52">
         <f t="shared" si="2"/>
         <v>0.216</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="20">
         <v>0</v>
       </c>
-      <c r="L19" s="81"/>
-      <c r="Q19" s="34">
+      <c r="L19" s="67"/>
+      <c r="Q19" s="20">
         <v>0</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="20">
         <v>0.5</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S19" s="20">
         <v>0.216</v>
       </c>
     </row>
-    <row r="20" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="H20" s="51">
+      <c r="D20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="H20" s="50">
         <f>H18+H19</f>
         <v>44.704999999999998</v>
       </c>
@@ -2821,7 +2827,7 @@
         <f>I18+I19</f>
         <v>1.1830000000000007</v>
       </c>
-      <c r="J20" s="51">
+      <c r="J20" s="50">
         <f>J18+J19</f>
         <v>-2.512000000000004</v>
       </c>
@@ -2829,7 +2835,7 @@
         <f>K18+K19</f>
         <v>-1.9069999999999989</v>
       </c>
-      <c r="L20" s="80"/>
+      <c r="L20" s="66"/>
       <c r="Q20" s="33">
         <f>Q18+Q19</f>
         <v>-2.1569999999999996</v>
@@ -2843,74 +2849,74 @@
         <v>-1.329000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:19" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="43" t="s">
+    <row r="21" spans="2:19" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="43">
+      <c r="D21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="42">
         <f>I20/I22</f>
         <v>2.2533334191746079E-2</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="43">
         <f>J20/J22</f>
         <v>-4.789323164918978E-2</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="42">
         <f>K20/K22</f>
         <v>-3.6323810907573729E-2</v>
       </c>
-      <c r="L21" s="85"/>
-      <c r="Q21" s="43">
+      <c r="L21" s="70"/>
+      <c r="Q21" s="42">
         <f>Q20/Q22</f>
         <v>-1.4105413581221884E-2</v>
       </c>
-      <c r="R21" s="43">
+      <c r="R21" s="42">
         <f>R20/R22</f>
         <v>1.1916110581506144E-2</v>
       </c>
-      <c r="S21" s="43">
+      <c r="S21" s="42">
         <f>S20/S22</f>
         <v>-2.5338417540514812E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="34" t="s">
+    <row r="22" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="H22" s="53">
+      <c r="D22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="H22" s="52">
         <f>Q22</f>
         <v>152.92001099999999</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="20">
         <v>52.499997999999998</v>
       </c>
-      <c r="J22" s="53">
+      <c r="J22" s="52">
         <f>S22</f>
         <v>52.45</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="20">
         <v>52.499997999999998</v>
       </c>
-      <c r="L22" s="81"/>
-      <c r="Q22" s="34">
+      <c r="L22" s="67"/>
+      <c r="Q22" s="20">
         <v>152.92001099999999</v>
       </c>
-      <c r="R22" s="34">
+      <c r="R22" s="20">
         <v>52.45</v>
       </c>
-      <c r="S22" s="34">
+      <c r="S22" s="20">
         <v>52.45</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="K23" s="34"/>
-    </row>
-    <row r="25" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="K23" s="20"/>
+    </row>
+    <row r="25" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -2918,21 +2924,21 @@
       <c r="F25" s="28"/>
       <c r="H25" s="28"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="37">
+      <c r="K25" s="36">
         <f>K6/I6-1</f>
         <v>-0.10840544710538669</v>
       </c>
-      <c r="L25" s="86"/>
-      <c r="R25" s="37">
-        <f t="shared" ref="R25:S25" si="3">R6/Q6-1</f>
+      <c r="L25" s="71"/>
+      <c r="R25" s="36">
+        <f t="shared" ref="R25" si="3">R6/Q6-1</f>
         <v>1.3159612495467026</v>
       </c>
-      <c r="S25" s="37">
+      <c r="S25" s="36">
         <f>S6/R6-1</f>
         <v>0.2821160943965999</v>
       </c>
     </row>
-    <row r="26" spans="2:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="31" t="s">
         <v>54</v>
       </c>
@@ -2940,21 +2946,21 @@
       <c r="F26" s="30"/>
       <c r="H26" s="30"/>
       <c r="J26" s="30"/>
-      <c r="K26" s="66">
+      <c r="K26" s="54">
         <f>K4/I4-1</f>
         <v>-5.0082745405451989E-3</v>
       </c>
-      <c r="L26" s="87"/>
-      <c r="R26" s="66">
-        <f t="shared" ref="R26:S26" si="4">R4/Q4-1</f>
+      <c r="L26" s="72"/>
+      <c r="R26" s="54">
+        <f t="shared" ref="R26" si="4">R4/Q4-1</f>
         <v>1.0785142857142858</v>
       </c>
-      <c r="S26" s="66">
+      <c r="S26" s="54">
         <f>S4/R4-1</f>
         <v>0.22843239676692129</v>
       </c>
     </row>
-    <row r="27" spans="2:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="31" t="s">
         <v>55</v>
       </c>
@@ -2962,213 +2968,231 @@
       <c r="F27" s="30"/>
       <c r="H27" s="30"/>
       <c r="J27" s="30"/>
-      <c r="K27" s="66">
+      <c r="K27" s="54">
         <f>K5/I5-1</f>
         <v>-0.45490367775831875</v>
       </c>
-      <c r="L27" s="87"/>
-      <c r="R27" s="66">
-        <f t="shared" ref="R27:S27" si="5">R5/Q5-1</f>
+      <c r="L27" s="72"/>
+      <c r="R27" s="54">
+        <f t="shared" ref="R27" si="5">R5/Q5-1</f>
         <v>3.628333333333333</v>
       </c>
-      <c r="S27" s="66">
+      <c r="S27" s="54">
         <f>S5/R5-1</f>
         <v>0.51650462129396235</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="35">
         <f>J6/I6-1</f>
         <v>-7.7513919635070816E-2</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28" s="34">
         <f>K6/J6-1</f>
         <v>-3.3487255935716109E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="35" t="s">
+    <row r="30" spans="2:19" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="H30" s="36">
+      <c r="D30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="H30" s="35">
         <f>H8/H6</f>
         <v>1</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="34">
         <f>I8/I6</f>
         <v>0.4706849131280606</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="35">
         <f>J8/J6</f>
         <v>0.40490128349634569</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="34">
         <f>K8/K6</f>
         <v>0.48510270107591608</v>
       </c>
-      <c r="L30" s="88"/>
-      <c r="Q30" s="35">
-        <f t="shared" ref="Q30:R30" si="6">Q8/Q6</f>
+      <c r="L30" s="73"/>
+      <c r="Q30" s="34">
+        <f t="shared" ref="Q30" si="6">Q8/Q6</f>
         <v>0.53017665647826762</v>
       </c>
-      <c r="R30" s="35">
+      <c r="R30" s="34">
         <f>R8/R6</f>
         <v>0.46055251090482047</v>
       </c>
-      <c r="S30" s="35">
+      <c r="S30" s="34">
         <f>S8/S6</f>
         <v>0.43911928398206462</v>
       </c>
     </row>
-    <row r="31" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="35" t="s">
+    <row r="31" spans="2:19" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="H31" s="36">
+      <c r="D31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="H31" s="35">
         <f>H16/H6</f>
         <v>1</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="34">
         <f>I16/I6</f>
         <v>4.011538203528546E-2</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="35">
         <f>J16/J6</f>
         <v>-9.8243827946042403E-2</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="34">
         <f>K16/K6</f>
         <v>-6.8918817244752045E-2</v>
       </c>
-      <c r="L31" s="88"/>
-      <c r="Q31" s="35">
-        <f t="shared" ref="Q31:R31" si="7">Q16/Q6</f>
+      <c r="L31" s="73"/>
+      <c r="Q31" s="34">
+        <f t="shared" ref="Q31" si="7">Q16/Q6</f>
         <v>-9.3871418950422184E-2</v>
       </c>
-      <c r="R31" s="35">
+      <c r="R31" s="34">
         <f>R16/R6</f>
         <v>1.1609439659993231E-2</v>
       </c>
-      <c r="S31" s="35">
+      <c r="S31" s="34">
         <f>S16/S6</f>
         <v>-2.6274927159481515E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="35">
         <f>H20/H6</f>
         <v>1</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="34">
         <f>I20/I6</f>
         <v>3.9679345274032357E-2</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="35">
         <f>J20/J6</f>
         <v>-9.1335490673744829E-2</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="34">
         <f>K20/K6</f>
         <v>-7.1740275374313406E-2</v>
       </c>
-      <c r="Q32" s="35">
-        <f t="shared" ref="Q32:R32" si="8">Q20/Q6</f>
+      <c r="Q32" s="34">
+        <f t="shared" ref="Q32" si="8">Q20/Q6</f>
         <v>-0.11174428845257212</v>
       </c>
-      <c r="R32" s="35">
+      <c r="R32" s="34">
         <f>R20/R6</f>
         <v>1.3980539089587235E-2</v>
       </c>
-      <c r="S32" s="35">
+      <c r="S32" s="34">
         <f>S20/S6</f>
         <v>-2.3186838110857196E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="35" t="s">
+    <row r="33" spans="2:19" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="H33" s="36">
+      <c r="D33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="H33" s="35">
         <f>-H19/H18</f>
         <v>0</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="34">
         <f>-I19/I18</f>
         <v>0</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="35">
         <f>-J19/J18</f>
         <v>7.9178885630498408E-2</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="34">
         <f>-K19/K18</f>
         <v>0</v>
       </c>
-      <c r="L33" s="88"/>
-      <c r="Q33" s="35">
-        <f t="shared" ref="Q33:R33" si="9">-Q19/Q18</f>
+      <c r="L33" s="73"/>
+      <c r="Q33" s="34">
+        <f t="shared" ref="Q33" si="9">-Q19/Q18</f>
         <v>0</v>
       </c>
-      <c r="R33" s="35">
+      <c r="R33" s="34">
         <f>-R19/R18</f>
         <v>-4.0000000000000853</v>
       </c>
-      <c r="S33" s="35">
+      <c r="S33" s="34">
         <f>-S19/S18</f>
         <v>0.13980582524271826</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B36" s="47" t="s">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B36" s="46" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="20">
         <v>1.5620000000000001</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="20">
         <v>2.4049999999999998</v>
       </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R37" s="20">
+        <v>1.125</v>
+      </c>
+      <c r="S37" s="20">
+        <v>2.1539999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="20">
         <v>0.35599999999999998</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="20">
         <v>0.79900000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R38" s="20">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="S38" s="20">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="20">
         <v>1.202</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K39" s="20">
         <v>6.1420000000000003</v>
       </c>
-    </row>
-    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R39" s="20">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="S39" s="20">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>105</v>
       </c>
@@ -3182,33 +3206,53 @@
       <c r="K40" s="33">
         <v>0.441</v>
       </c>
-      <c r="L40" s="86"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="L40" s="71"/>
+      <c r="R40" s="33">
+        <v>0</v>
+      </c>
+      <c r="S40" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="20">
         <v>0.5</v>
       </c>
-      <c r="K41" s="34">
+      <c r="K41" s="20">
         <v>0.71599999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R41" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="S41" s="20">
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="20">
         <f>SUM(I37:I41)</f>
         <v>3.62</v>
       </c>
-      <c r="K42" s="34">
+      <c r="K42" s="20">
         <f>SUM(K37:K41)</f>
         <v>10.503</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R42" s="20">
+        <f>SUM(R37:R41)</f>
+        <v>2.1890000000000001</v>
+      </c>
+      <c r="S42" s="20">
+        <f>SUM(S37:S41)</f>
+        <v>4.6150000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
         <v>107</v>
       </c>
@@ -3224,20 +3268,32 @@
       <c r="K43" s="33">
         <v>7.0860000000000003</v>
       </c>
-      <c r="L43" s="86"/>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="L43" s="71"/>
+      <c r="R43" s="33">
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="S43" s="33">
+        <v>3.1419999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44" s="20">
         <v>6.0339999999999998</v>
       </c>
-      <c r="K44" s="34">
+      <c r="K44" s="20">
         <v>4.8319999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R44" s="20">
+        <v>1.746</v>
+      </c>
+      <c r="S44" s="20">
+        <v>5.1909999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
@@ -3251,162 +3307,252 @@
       <c r="K45" s="33">
         <v>3.851</v>
       </c>
-      <c r="L45" s="86"/>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="L45" s="71"/>
+      <c r="R45" s="33">
+        <v>11.939</v>
+      </c>
+      <c r="S45" s="33">
+        <v>5.8230000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="20">
         <f>SUM(I42:I45)</f>
         <v>22.962000000000003</v>
       </c>
-      <c r="K46" s="34">
+      <c r="K46" s="20">
         <f>SUM(K42:K45)</f>
         <v>26.271999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="I47" s="34"/>
-      <c r="K47" s="34"/>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R46" s="20">
+        <f>SUM(R42:R45)</f>
+        <v>17.829000000000001</v>
+      </c>
+      <c r="S46" s="20">
+        <f>SUM(S42:S45)</f>
+        <v>18.771000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="I47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="20">
         <v>0</v>
       </c>
-      <c r="K48" s="34">
+      <c r="K48" s="20">
         <v>0.92900000000000005</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R48" s="20">
+        <v>0</v>
+      </c>
+      <c r="S48" s="20">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I49" s="34">
+      <c r="I49" s="20">
         <v>0.84299999999999997</v>
       </c>
-      <c r="K49" s="34">
+      <c r="K49" s="20">
         <v>5.0140000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R49" s="20">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="S49" s="20">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I50" s="34">
+      <c r="I50" s="20">
         <f>SUM(I48:I49)</f>
         <v>0.84299999999999997</v>
       </c>
-      <c r="K50" s="34">
+      <c r="K50" s="20">
         <f>SUM(K48:K49)</f>
         <v>5.9430000000000005</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R50" s="20">
+        <f>SUM(R48:R49)</f>
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="S50" s="20">
+        <f>SUM(S48:S49)</f>
+        <v>0.81300000000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I51" s="34">
+      <c r="I51" s="20">
         <v>8.0730000000000004</v>
       </c>
-      <c r="K51" s="34">
+      <c r="K51" s="20">
         <v>11.032</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R51" s="20">
+        <v>5.0880000000000001</v>
+      </c>
+      <c r="S51" s="20">
+        <v>5.9080000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52" s="20">
         <v>1.36</v>
       </c>
-      <c r="K52" s="34">
+      <c r="K52" s="20">
         <v>1.0109999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R52" s="20">
+        <v>1.113</v>
+      </c>
+      <c r="S52" s="20">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I53" s="34">
+      <c r="I53" s="20">
         <v>0</v>
       </c>
-      <c r="K53" s="34">
+      <c r="K53" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R53" s="20">
+        <v>0</v>
+      </c>
+      <c r="S53" s="20">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I54" s="34">
+      <c r="I54" s="20">
         <v>0.61299999999999999</v>
       </c>
-      <c r="K54" s="34">
+      <c r="K54" s="20">
         <v>0.60499999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R54" s="20">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="S54" s="20">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I55" s="34">
+      <c r="I55" s="20">
         <f>SUM(I50:I54)</f>
         <v>10.888999999999999</v>
       </c>
-      <c r="K55" s="34">
+      <c r="K55" s="20">
         <f>SUM(K50:K54)</f>
         <v>18.591000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I56" s="34"/>
-      <c r="K56" s="34"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R55" s="20">
+        <f>SUM(R50:R54)</f>
+        <v>6.645999999999999</v>
+      </c>
+      <c r="S55" s="20">
+        <f>SUM(S50:S54)</f>
+        <v>8.0560000000000009</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="I56" s="20"/>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I57" s="34">
+      <c r="I57" s="20">
         <v>12.073</v>
       </c>
-      <c r="K57" s="34">
+      <c r="K57" s="20">
         <v>7.681</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R57" s="20">
+        <v>11.183</v>
+      </c>
+      <c r="S57" s="1">
+        <v>10.715</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I58" s="34">
+      <c r="I58" s="20">
         <f>I57+I55</f>
         <v>22.962</v>
       </c>
-      <c r="K58" s="34">
+      <c r="K58" s="20">
         <f>K57+K55</f>
         <v>26.272000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K59" s="34"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R58" s="20">
+        <f>R57+R55</f>
+        <v>17.829000000000001</v>
+      </c>
+      <c r="S58" s="20">
+        <f>S57+S55</f>
+        <v>18.771000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="K59" s="20"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I60" s="34">
+      <c r="I60" s="20">
         <f>I46-I55</f>
         <v>12.073000000000004</v>
       </c>
-      <c r="K60" s="34">
+      <c r="K60" s="20">
         <f>K46-K55</f>
         <v>7.6809999999999974</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="R60" s="20">
+        <f t="shared" ref="R60:S60" si="10">R46-R55</f>
+        <v>11.183000000000002</v>
+      </c>
+      <c r="S60" s="20">
+        <f>S46-S55</f>
+        <v>10.715</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>93</v>
       </c>
@@ -3418,8 +3564,16 @@
         <f>K60/K22</f>
         <v>0.14630476747827681</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R61" s="1">
+        <f t="shared" ref="R61" si="11">R60/R22</f>
+        <v>0.21321258341277408</v>
+      </c>
+      <c r="S61" s="1">
+        <f>S60/S22</f>
+        <v>0.20428979980934223</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="29" t="s">
         <v>6</v>
       </c>
@@ -3435,9 +3589,17 @@
         <f>K40+K45</f>
         <v>4.2919999999999998</v>
       </c>
-      <c r="L63" s="87"/>
-    </row>
-    <row r="64" spans="2:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L63" s="72"/>
+      <c r="R63" s="32">
+        <f t="shared" ref="R63:S63" si="12">R40+R45</f>
+        <v>11.939</v>
+      </c>
+      <c r="S63" s="32">
+        <f>S40+S45</f>
+        <v>5.8230000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="29" t="s">
         <v>94</v>
       </c>
@@ -3451,22 +3613,36 @@
       <c r="K64" s="32">
         <v>0</v>
       </c>
-      <c r="L64" s="87"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L64" s="72"/>
+      <c r="R64" s="32">
+        <v>0</v>
+      </c>
+      <c r="S64" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I65" s="34">
+      <c r="I65" s="20">
         <f>I63-I64</f>
         <v>9.8940000000000001</v>
       </c>
-      <c r="K65" s="34">
+      <c r="K65" s="20">
         <f>K63-K64</f>
         <v>4.2919999999999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R65" s="20">
+        <f t="shared" ref="R65" si="13">R63-R64</f>
+        <v>11.939</v>
+      </c>
+      <c r="S65" s="20">
+        <f>S63-S64</f>
+        <v>5.8230000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="s">
         <v>96</v>
       </c>
@@ -3474,167 +3650,199 @@
       <c r="F67" s="28"/>
       <c r="H67" s="28"/>
       <c r="J67" s="28"/>
-      <c r="K67" s="37">
+      <c r="K67" s="36">
         <f>K43/I43-1</f>
         <v>1.0755711775043935</v>
       </c>
-      <c r="L67" s="86"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L67" s="71"/>
+      <c r="S67" s="36">
+        <f>S45/R45-1</f>
+        <v>-0.51227070943965147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K68" s="35">
+      <c r="K68" s="34">
         <f>K43/J43-1</f>
         <v>-1.9718309859153571E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K69" s="35">
+      <c r="K69" s="34">
         <f>K43/SUM(J6:K6)</f>
         <v>0.13101599334381067</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="41" t="s">
+      <c r="S69" s="34">
+        <f>S43/S6</f>
+        <v>5.4817942320777427E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="41">
+      <c r="D71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="40">
         <v>1.28</v>
       </c>
-      <c r="J71" s="42">
+      <c r="J71" s="41">
         <f>S71</f>
         <v>0.77500000000000002</v>
       </c>
-      <c r="K71" s="41">
+      <c r="K71" s="40">
         <v>0.17499999999999999</v>
       </c>
-      <c r="L71" s="89"/>
-      <c r="R71" s="41">
+      <c r="L71" s="74"/>
+      <c r="R71" s="40">
         <v>2.2200000000000002</v>
       </c>
-      <c r="S71" s="41">
+      <c r="S71" s="40">
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="34">
+      <c r="I72" s="20">
         <f>I71*I22</f>
         <v>67.199997440000004</v>
       </c>
-      <c r="J72" s="53">
+      <c r="J72" s="52">
         <f>J71*J22</f>
         <v>40.648750000000007</v>
       </c>
-      <c r="K72" s="34">
+      <c r="K72" s="20">
         <f>K71*K22</f>
         <v>9.1874996499999995</v>
       </c>
-      <c r="R72" s="34">
+      <c r="R72" s="20">
         <f>R71*R22</f>
         <v>116.43900000000002</v>
       </c>
-      <c r="S72" s="34">
+      <c r="S72" s="20">
         <f>S71*S22</f>
         <v>40.648750000000007</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I73" s="34">
+      <c r="I73" s="20">
         <f>I72-I65</f>
         <v>57.305997440000006</v>
       </c>
-      <c r="J73" s="53">
+      <c r="J73" s="52">
         <f>J72-J65</f>
         <v>40.648750000000007</v>
       </c>
-      <c r="K73" s="34">
+      <c r="K73" s="20">
         <f>K72-K65</f>
         <v>4.8954996499999996</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="49">
+      <c r="R73" s="20">
+        <f>R72-R65</f>
+        <v>104.50000000000003</v>
+      </c>
+      <c r="S73" s="20">
+        <f>S72-S65</f>
+        <v>34.825750000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A75" s="48">
         <f>AVERAGE(C75:K75)</f>
         <v>3.3811361887529907</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I75" s="48">
+      <c r="I75" s="47">
         <f>I71/I61</f>
         <v>5.5661391070984818</v>
       </c>
-      <c r="K75" s="48">
+      <c r="K75" s="47">
         <f>K71/K61</f>
         <v>1.1961332704074994</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R75" s="47">
+        <f>R71/R61</f>
+        <v>10.412143431994993</v>
+      </c>
+      <c r="S75" s="47">
+        <f>S71/S61</f>
+        <v>3.7936304246383576</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J76" s="76">
+      <c r="J76" s="62">
         <f>J72/SUM(I6:J6)</f>
         <v>0.70919186279812285</v>
       </c>
-      <c r="K76" s="48">
+      <c r="K76" s="47">
         <f>K72/SUM(J6:K6)</f>
         <v>0.16987149209577515</v>
       </c>
-      <c r="R76" s="48">
+      <c r="R76" s="47">
         <f>R72/R6</f>
         <v>2.6046079856839284</v>
       </c>
-      <c r="S76" s="48">
+      <c r="S76" s="47">
         <f>S72/S6</f>
         <v>0.70919186279812285</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R77" s="47">
+        <f>R73/R6</f>
+        <v>2.3375461357789962</v>
+      </c>
+      <c r="S77" s="47">
+        <f>S73/S6</f>
+        <v>0.60759896714761774</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J78" s="76">
+      <c r="J78" s="62">
         <f>J71/(J21*100)</f>
         <v>-0.16181827229299339</v>
       </c>
-      <c r="K78" s="48">
+      <c r="K78" s="47">
         <f>K71/(K21*100)</f>
         <v>-4.8177764289459912E-2</v>
       </c>
-      <c r="R78" s="48">
+      <c r="R78" s="47">
         <f>R71/(R21*100)</f>
         <v>1.8630240000000082</v>
       </c>
-      <c r="S78" s="48">
+      <c r="S78" s="47">
         <f>S71/(S21*100)</f>
         <v>-0.30585966892400263</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>24</v>
       </c>
